--- a/data/case1/5/Q2_2.xlsx
+++ b/data/case1/5/Q2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.16709883557802385</v>
+        <v>0.30188945895206132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999331203924</v>
+        <v>-0.060352781895772978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.027859452433274257</v>
+        <v>-0.003999999956583622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998935651462</v>
+        <v>-0.0079999999216884277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002999999944382381</v>
+        <v>-0.0029999999525616161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999485573738</v>
+        <v>-0.0019999999450952544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998620305952</v>
+        <v>-0.0099999998869080287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998591711048</v>
+        <v>-0.0099999998870909934</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999447413153</v>
+        <v>-0.001999999946979969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999436439708</v>
+        <v>-0.0019999999489481723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999327809945</v>
+        <v>0.039095558465374936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999270768356</v>
+        <v>-0.0034999999373863666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999273992444</v>
+        <v>-0.0034999999330569409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998792619209</v>
+        <v>-0.0079999998991864274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995641830708</v>
+        <v>-0.00099999994951271987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.023671146189649939</v>
+        <v>-0.0019999999415505343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.036503584889160834</v>
+        <v>-0.0019999999406126179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999348703241</v>
+        <v>-0.0039999999257585017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999546891374</v>
+        <v>-0.054969206662787151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999511710627</v>
+        <v>-0.0039999999645630169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999506461492</v>
+        <v>-0.0039999999641615602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999501505457</v>
+        <v>-0.0039999999639039885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999260874617</v>
+        <v>-0.0049999999465999423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999755741626</v>
+        <v>-0.019999999833099302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999752151609</v>
+        <v>-0.019999999830710991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999429518027</v>
+        <v>-0.0024999999394701433</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.042549995281908171</v>
+        <v>-0.0024999999360471037</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999349700204</v>
+        <v>-0.0019999999239299626</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998714642686</v>
+        <v>-0.0069999998764300742</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999291080908</v>
+        <v>-0.059999999484623423</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.02289698511012439</v>
+        <v>-0.0069999998669540986</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998359159292</v>
+        <v>-0.0099999998445525762</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999010422727</v>
+        <v>-0.0039999998880997367</v>
       </c>
     </row>
   </sheetData>
